--- a/Sprint plan.xlsx
+++ b/Sprint plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jankalasnikov/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jankalasnikov/Documents/GitHub/SaveTheWorld/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7F966CE-35F0-0644-B7FE-23EE956B56B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182B766C-235F-4A43-9EA7-7F47B133C5C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16480" xr2:uid="{655C344E-88D3-D746-9F0C-F240E1E3509D}"/>
   </bookViews>
@@ -297,16 +297,16 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1524,7 +1524,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1572,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1583,7 +1583,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1594,7 +1594,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>1</v>

--- a/Sprint plan.xlsx
+++ b/Sprint plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jankalasnikov/Documents/GitHub/SaveTheWorld/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SaveTheWorld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182B766C-235F-4A43-9EA7-7F47B133C5C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5F2907-4F9B-44C9-B912-507B722C2543}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16480" xr2:uid="{655C344E-88D3-D746-9F0C-F240E1E3509D}"/>
+    <workbookView xWindow="5910" yWindow="2880" windowWidth="21600" windowHeight="11385" xr2:uid="{655C344E-88D3-D746-9F0C-F240E1E3509D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,13 +48,13 @@
     <t>Sprint 4</t>
   </si>
   <si>
-    <t>Sprint 0</t>
-  </si>
-  <si>
     <t>Length (in days)</t>
   </si>
   <si>
     <t xml:space="preserve">Days for review </t>
+  </si>
+  <si>
+    <t>Working days</t>
   </si>
 </sst>
 </file>
@@ -95,7 +95,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -113,7 +113,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="bg-BG"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -175,7 +175,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -191,11 +191,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Length (in days)</c:v>
+                  <c:v>Working days</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -234,7 +234,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="cs-CZ"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -266,22 +266,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Sprint 0</c:v>
+                  <c:v>Sprint 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 1</c:v>
+                  <c:v>Sprint 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sprint 2</c:v>
+                  <c:v>Sprint 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 3</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>Sprint 4</c:v>
                 </c:pt>
               </c:strCache>
@@ -289,23 +286,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>Sheet1!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -322,7 +316,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -365,7 +359,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="cs-CZ"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -397,22 +391,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Sprint 0</c:v>
+                  <c:v>Sprint 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 1</c:v>
+                  <c:v>Sprint 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sprint 2</c:v>
+                  <c:v>Sprint 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 3</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>Sprint 4</c:v>
                 </c:pt>
               </c:strCache>
@@ -420,23 +411,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>Sheet1!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -517,7 +505,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1326799519"/>
@@ -577,7 +565,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -614,7 +602,537 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="cs-CZ"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="bg-BG"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint plan</a:t>
+            </a:r>
+            <a:endParaRPr lang="bg-BG"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Length (in days)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-714B-4DC2-8FD8-D7921406D093}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Working days</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-714B-4DC2-8FD8-D7921406D093}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Days for review </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-714B-4DC2-8FD8-D7921406D093}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="539657800"/>
+        <c:axId val="539656816"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="539657800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539656816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="539656816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539657800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -665,6 +1183,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
   <cs:axisTitle>
@@ -1183,19 +1741,513 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1221,13 +2273,49 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>852487</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A3701E-3780-4C9E-89E0-B4937AD2594F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема на Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Оffice">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1265,7 +2353,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Оffice">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1371,7 +2459,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Оffice">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1521,82 +2609,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28931F01-8420-8C44-8BC1-6BEA904988BA}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
+    <col min="1" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="D3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="D5">
         <v>1</v>
       </c>
     </row>

--- a/Sprint plan.xlsx
+++ b/Sprint plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jankalasnikov/Documents/GitHub/SaveTheWorld/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182B766C-235F-4A43-9EA7-7F47B133C5C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90B5735-C1B3-3542-8A3D-0328D1AA2B66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16480" xr2:uid="{655C344E-88D3-D746-9F0C-F240E1E3509D}"/>
   </bookViews>
@@ -48,13 +48,13 @@
     <t>Sprint 4</t>
   </si>
   <si>
-    <t>Sprint 0</t>
-  </si>
-  <si>
     <t>Length (in days)</t>
   </si>
   <si>
     <t xml:space="preserve">Days for review </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working days </t>
   </si>
 </sst>
 </file>
@@ -266,22 +266,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Sprint 0</c:v>
+                  <c:v>Sprint 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 1</c:v>
+                  <c:v>Sprint 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sprint 2</c:v>
+                  <c:v>Sprint 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 3</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>Sprint 4</c:v>
                 </c:pt>
               </c:strCache>
@@ -289,31 +286,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4D19-8F48-BA94-7957A962E27E}"/>
+              <c16:uniqueId val="{00000000-3812-F446-8F2F-523A3B07B010}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -326,7 +320,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Days for review </c:v>
+                  <c:v>Working days </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -397,22 +391,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Sprint 0</c:v>
+                  <c:v>Sprint 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprint 1</c:v>
+                  <c:v>Sprint 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sprint 2</c:v>
+                  <c:v>Sprint 3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Sprint 3</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>Sprint 4</c:v>
                 </c:pt>
               </c:strCache>
@@ -420,31 +411,153 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>Sheet1!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4D19-8F48-BA94-7957A962E27E}"/>
+              <c16:uniqueId val="{00000001-3812-F446-8F2F-523A3B07B010}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Days for review </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3812-F446-8F2F-523A3B07B010}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -459,11 +572,11 @@
         </c:dLbls>
         <c:gapWidth val="79"/>
         <c:overlap val="100"/>
-        <c:axId val="1329501327"/>
-        <c:axId val="1326799519"/>
+        <c:axId val="387857759"/>
+        <c:axId val="387286607"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1329501327"/>
+        <c:axId val="387857759"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -520,7 +633,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1326799519"/>
+        <c:crossAx val="387286607"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -528,7 +641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1326799519"/>
+        <c:axId val="387286607"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -538,7 +651,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1329501327"/>
+        <c:crossAx val="387857759"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1187,23 +1300,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE7C04BC-8F0C-4047-A318-F467CCF3A7E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A9C89D7-A9CF-A944-8D29-CF2EDE6FCA58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1521,82 +1634,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28931F01-8420-8C44-8BC1-6BEA904988BA}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
+    <col min="1" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
+      <c r="D5">
         <v>1</v>
       </c>
     </row>

--- a/Sprint plan.xlsx
+++ b/Sprint plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SaveTheWorld\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jankalasnikov/Documents/GitHub/SaveTheWorld/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5F2907-4F9B-44C9-B912-507B722C2543}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457D8E66-32EE-2749-A694-51749D37D357}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="2880" windowWidth="21600" windowHeight="11385" xr2:uid="{655C344E-88D3-D746-9F0C-F240E1E3509D}"/>
+    <workbookView xWindow="5920" yWindow="2880" windowWidth="21600" windowHeight="11380" xr2:uid="{655C344E-88D3-D746-9F0C-F240E1E3509D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -113,7 +113,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="bg-BG"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -175,7 +175,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -191,11 +191,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Working days</c:v>
+                  <c:v>Length (in days)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -234,7 +234,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="cs-CZ"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -286,28 +286,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4D19-8F48-BA94-7957A962E27E}"/>
+              <c16:uniqueId val="{00000000-18A8-7649-AB9E-212A7A5887C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -316,11 +316,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Days for review </c:v>
+                  <c:v>Working days</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -359,7 +359,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="cs-CZ"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -411,6 +411,131 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-18A8-7649-AB9E-212A7A5887C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Days for review </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>Sheet1!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -432,7 +557,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4D19-8F48-BA94-7957A962E27E}"/>
+              <c16:uniqueId val="{00000002-18A8-7649-AB9E-212A7A5887C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -447,11 +572,11 @@
         </c:dLbls>
         <c:gapWidth val="79"/>
         <c:overlap val="100"/>
-        <c:axId val="1329501327"/>
-        <c:axId val="1326799519"/>
+        <c:axId val="386257695"/>
+        <c:axId val="386286271"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1329501327"/>
+        <c:axId val="386257695"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -505,10 +630,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1326799519"/>
+        <c:crossAx val="386286271"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -516,7 +641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1326799519"/>
+        <c:axId val="386286271"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -526,7 +651,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1329501327"/>
+        <c:crossAx val="386257695"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -565,7 +690,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -602,537 +727,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="bg-BG"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Sprint plan</a:t>
-            </a:r>
-            <a:endParaRPr lang="bg-BG"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Length (in days)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Sprint 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sprint 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sprint 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sprint 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-714B-4DC2-8FD8-D7921406D093}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Working days</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Sprint 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sprint 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sprint 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sprint 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-714B-4DC2-8FD8-D7921406D093}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Days for review </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Sprint 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sprint 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sprint 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sprint 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-714B-4DC2-8FD8-D7921406D093}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="539657800"/>
-        <c:axId val="539656816"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="539657800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="539656816"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="539656816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="539657800"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1183,46 +778,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
   <cs:axisTitle>
@@ -1737,500 +1292,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2240,22 +1301,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>700453</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>10569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>318541</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47211</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE7C04BC-8F0C-4047-A318-F467CCF3A7E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E659D9A-88B3-8A4A-94EE-639F9F6DEA7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2273,49 +1334,13 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>852487</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграма 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A3701E-3780-4C9E-89E0-B4937AD2594F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема на Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Оffice">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2353,7 +1378,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Оffice">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2459,7 +1484,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Оffice">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2611,18 +1636,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28931F01-8420-8C44-8BC1-6BEA904988BA}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="118" workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="1" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
     <col min="4" max="4" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2636,7 +1661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2650,7 +1675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2664,7 +1689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2678,7 +1703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
